--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB35172-F6DC-4BF5-9378-3E6C08284CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA420366-943E-4F4A-9A08-1AD6DEC1BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Display" sheetId="8" r:id="rId2"/>
+    <sheet name="Front Panel" sheetId="2" r:id="rId3"/>
+    <sheet name="RF Board" sheetId="3" r:id="rId4"/>
+    <sheet name="BPF Board" sheetId="4" r:id="rId5"/>
+    <sheet name="LPF Board" sheetId="6" r:id="rId6"/>
+    <sheet name="VHF Board" sheetId="7" r:id="rId7"/>
+    <sheet name="100W Module" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="197">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -56,9 +63,6 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>Main BD</t>
-  </si>
-  <si>
     <t>Wire</t>
   </si>
   <si>
@@ -104,43 +108,539 @@
     <t>Functions</t>
   </si>
   <si>
-    <t>Wire: 0x0A is the Audio Adapter</t>
-  </si>
-  <si>
-    <t>Wire: 0x60 is the si5351a</t>
-  </si>
-  <si>
-    <t>Wire1: 0x20 is the Pico</t>
-  </si>
-  <si>
-    <t>Wire1: 0x20 is the MCP23017 for Front Panel Switches 1-16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Wire1: 0x21 is the MCP23017 for Front Panel Switches 17-18, Encoders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>encoder 1..4 switches, encoder 1..4 A and B and 2 output LEDS.</t>
-    </r>
-  </si>
-  <si>
-    <t>Wire1: 0x</t>
-  </si>
-  <si>
-    <t>Wire: 0x61 is the second receiver si5351</t>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>Audio Adapter/ Hat</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>0x60</t>
+  </si>
+  <si>
+    <t>Front Panel</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>Pico Communication</t>
+  </si>
+  <si>
+    <t>0X21</t>
+  </si>
+  <si>
+    <t>MCP23017 for Front Panel Switches 17-18, Encoders encoder 1..4 switches, encoder 1..4 A and B and 2 output LEDS.</t>
+  </si>
+  <si>
+    <t>MCP23017 for Front Panel Switches Switches 1-16</t>
+  </si>
+  <si>
+    <t>0x61</t>
+  </si>
+  <si>
+    <t>Si5351a Frequency Control - Primary Receiver and Transmitter</t>
+  </si>
+  <si>
+    <t>Si5351a Frequency Control - Second Receiver</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>0x23</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP23017 for Second  Receiver Option Control - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP23017 for Primary Receiver/Transmitter Option Control - </t>
+  </si>
+  <si>
+    <t>BPF</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MCP23017 for Band Selection - 160M-6M + Bypass</t>
+  </si>
+  <si>
+    <t>K9HZ</t>
+  </si>
+  <si>
+    <t>LPF</t>
+  </si>
+  <si>
+    <t>VHF-UHF</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>MCP21017 for Band LPF Selection 160M-6M+Bypass, 1-4 Antenna Selection, XVTR Selection, 100W Module Selection, BPF TX &amp; RX Selection.</t>
+  </si>
+  <si>
+    <t>0x28 or 0x29</t>
+  </si>
+  <si>
+    <t>AD7991-1/-1 A/D for FOR and REF Power.</t>
+  </si>
+  <si>
+    <t>Front Panel Board - I2C Addresses</t>
+  </si>
+  <si>
+    <t>100W</t>
+  </si>
+  <si>
+    <t>Current, Temperature, Bias</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>MCP23017</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Chip Pin</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>GPA0</t>
+  </si>
+  <si>
+    <t>GPA1</t>
+  </si>
+  <si>
+    <t>GPA2</t>
+  </si>
+  <si>
+    <t>GPA3</t>
+  </si>
+  <si>
+    <t>GPA4</t>
+  </si>
+  <si>
+    <t>GPA5</t>
+  </si>
+  <si>
+    <t>GPA6</t>
+  </si>
+  <si>
+    <t>GPA7</t>
+  </si>
+  <si>
+    <t>GPB0</t>
+  </si>
+  <si>
+    <t>GPB1</t>
+  </si>
+  <si>
+    <t>GPB2</t>
+  </si>
+  <si>
+    <t>GPB3</t>
+  </si>
+  <si>
+    <t>GPB4</t>
+  </si>
+  <si>
+    <t>GPB5</t>
+  </si>
+  <si>
+    <t>GPB6</t>
+  </si>
+  <si>
+    <t>GPB7</t>
+  </si>
+  <si>
+    <t>HI = BPF In Circuit During TX, LO = Bypass</t>
+  </si>
+  <si>
+    <t>HI = BPF In Circuit During RX, LO = Bypass</t>
+  </si>
+  <si>
+    <t>Antenna Select: [GPA5, GPA4] - [00] = ANT1, [01] = ANT2</t>
+  </si>
+  <si>
+    <t>Antenna Select: [GPA5, GPA4] - [10] = ANT3, [11] = ANT4</t>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>LPF Band Select = [GPB3, GPB2, GPB1, GPB0]  See Band Table --&gt;</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>160M</t>
+  </si>
+  <si>
+    <t>80M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>40M</t>
+  </si>
+  <si>
+    <t>30M</t>
+  </si>
+  <si>
+    <t>20M</t>
+  </si>
+  <si>
+    <t>17M</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>Bypass</t>
+  </si>
+  <si>
+    <t>Transverter Select = HIGH, Bypass = LOW</t>
+  </si>
+  <si>
+    <t>100W Module Select - HIGH, Bypass = LOW</t>
+  </si>
+  <si>
+    <t>LPF Board - I2C Addresses</t>
+  </si>
+  <si>
+    <t>AD7991</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Reflected Power</t>
+  </si>
+  <si>
+    <t>Forward Power</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>Switch 1 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 2 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 3 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 4 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 5 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 6 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 7 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 8 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 9 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 10 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 11 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 12 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 13 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 14 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 15 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 16 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 17 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Switch 18 ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Encoder #1 Switch ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Encoder #2 Switch ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Encoder #3 Switch ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>Encoder #4 Switch ["1"=PRESSED, "0"=Released]</t>
+  </si>
+  <si>
+    <t>LED #1 ["1"=On, "0"=Off]</t>
+  </si>
+  <si>
+    <t>LED #2 ["1"=On, "0"=Off]</t>
+  </si>
+  <si>
+    <t>Encoder #1 A</t>
+  </si>
+  <si>
+    <t>Encoder #1 B</t>
+  </si>
+  <si>
+    <t>Encoder #2 A</t>
+  </si>
+  <si>
+    <t>Encoder #2 B</t>
+  </si>
+  <si>
+    <t>Encoder #3 A</t>
+  </si>
+  <si>
+    <t>Encoder #3 B</t>
+  </si>
+  <si>
+    <t>Encoder #4 A</t>
+  </si>
+  <si>
+    <t>Encoder #4 B</t>
+  </si>
+  <si>
+    <t>Si5351a</t>
+  </si>
+  <si>
+    <t>0x60/ 0x61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequency Control - Primary Receiver and Transmitter (0x60), Second Receiver (0x61)</t>
+  </si>
+  <si>
+    <t>0x22/ 0x23</t>
+  </si>
+  <si>
+    <t>010/ 011</t>
+  </si>
+  <si>
+    <t>TC-1 dB Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>TC-2 dB Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>TC-4 dB Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>TC-8 dB Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>TC-16 Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>MF or HF Select - "1"=MF, "0"=HF</t>
+  </si>
+  <si>
+    <t>TC-0.5 dB Transmit Power Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-0.5 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-1 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-2 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-4 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-8 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>RC-16 Receive Signal Reduction ["1"=On, "0"= Off]</t>
+  </si>
+  <si>
+    <t>BPF Board - I2C Addresses</t>
+  </si>
+  <si>
+    <t>High = 60M</t>
+  </si>
+  <si>
+    <t>High = 160M</t>
+  </si>
+  <si>
+    <t>High = 80M</t>
+  </si>
+  <si>
+    <t>High = 40M</t>
+  </si>
+  <si>
+    <t>High = 30M</t>
+  </si>
+  <si>
+    <t>High = 20M</t>
+  </si>
+  <si>
+    <t>High = 17M</t>
+  </si>
+  <si>
+    <t>High = 15M</t>
+  </si>
+  <si>
+    <t>High = Bypass</t>
+  </si>
+  <si>
+    <t>High = 12M</t>
+  </si>
+  <si>
+    <t>High = 10M</t>
+  </si>
+  <si>
+    <t>High = 6M</t>
+  </si>
+  <si>
+    <t>VHF Board - I2C Addresses</t>
+  </si>
+  <si>
+    <t>100W Module - I2C Addresses</t>
+  </si>
+  <si>
+    <t>RF Board - I2C Addresses</t>
+  </si>
+  <si>
+    <t>Frequency, Band, Preamp power, and I/Q switching</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Note:  These addresses can be verified using the modified i2cscan address scanner found on the G0ORX github: https://github.com/g0orx/i2cscan</t>
+  </si>
+  <si>
+    <t>DIsplay - I2C Addresses</t>
+  </si>
+  <si>
+    <t>Touch Screen Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSL1680 </t>
+  </si>
+  <si>
+    <t>0x40/0x38</t>
+  </si>
+  <si>
+    <t>FT5206</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>Wire3</t>
+  </si>
+  <si>
+    <t>Touch Screen Controller - 5" Display</t>
+  </si>
+  <si>
+    <t>Touch Screen Controller - 7" and 9" Display</t>
+  </si>
+  <si>
+    <t>Note:  Only one of the above addresses will be occupied.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,18 +681,58 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,10 +747,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,6 +762,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,157 +1162,3481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD3E8-C5A8-452B-8567-EDEC69EE61A0}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="M5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" s="24" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="22">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22">
+        <v>5</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="9"/>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="9"/>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="9"/>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963874D3-F215-4105-A5D5-D53AFE7D7B20}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="21"/>
+    <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="21"/>
+    <col min="6" max="6" width="8.7265625" style="30"/>
+    <col min="7" max="8" width="8.7265625" style="21"/>
+    <col min="9" max="9" width="33.7265625" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="28">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28">
+        <v>5</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28">
+        <v>5</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB960D6-D0A2-4CCD-B3E6-3DC0D955DAAB}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="H8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC196E3-39F8-4C84-8044-EC20A85177F6}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="21"/>
+    <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="21"/>
+    <col min="9" max="9" width="75.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CEA275-C1A0-46D7-8AA2-CA6D530244C3}">
+  <dimension ref="A1:Z21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="5.54296875" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="H7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676A2CBF-EC43-43E4-91B3-6FC126C26B0C}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.90625" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.54296875" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="K9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K11" s="5" t="s">
-        <v>28</v>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="H7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0AE3-182F-4BD5-AB93-73C4CBBCD126}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="21"/>
+    <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C995018-7454-4F0B-9248-892D574CFC72}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="21"/>
+    <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA420366-943E-4F4A-9A08-1AD6DEC1BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B3451-4C6D-4E20-9CC2-B6BFE962AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="199">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -153,9 +153,6 @@
     <t>MCP23017 for Front Panel Switches Switches 1-16</t>
   </si>
   <si>
-    <t>0x61</t>
-  </si>
-  <si>
     <t>Si5351a Frequency Control - Primary Receiver and Transmitter</t>
   </si>
   <si>
@@ -495,12 +492,6 @@
     <t>Si5351a</t>
   </si>
   <si>
-    <t>0x60/ 0x61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Frequency Control - Primary Receiver and Transmitter (0x60), Second Receiver (0x61)</t>
-  </si>
-  <si>
     <t>0x22/ 0x23</t>
   </si>
   <si>
@@ -634,13 +625,40 @@
   </si>
   <si>
     <t>Note:  Only one of the above addresses will be occupied.</t>
+  </si>
+  <si>
+    <t>0x61/0x6F</t>
+  </si>
+  <si>
+    <t>0x60/ 0x61/ 0x6F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequency Control - Primary Receiver and Transmitter (0x60), Second Receiver (0x61 or 0x6F)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>*Note:  As of this writing, Digikey stocks si5351 chips with custom I2C addresses - 0x6F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,17 +721,26 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
@@ -747,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,32 +829,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,7 +1178,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
@@ -1256,7 +1269,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1334,33 +1347,32 @@
       <c r="H9" s="12"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="22">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22">
-        <v>5</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="M10" s="25"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
@@ -1411,7 +1423,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
@@ -1425,7 +1437,7 @@
         <v>33</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>34</v>
@@ -1463,40 +1475,40 @@
         <v>29</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D17" s="9"/>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D18" s="9"/>
       <c r="G18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D19" s="9"/>
       <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1511,7 +1523,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -1526,13 +1538,13 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1547,7 +1559,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1562,27 +1574,27 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1597,7 +1609,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -1612,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1630,7 +1642,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -1645,15 +1657,15 @@
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1668,7 +1680,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1690,16 +1702,14 @@
     <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.90625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="21"/>
-    <col min="6" max="6" width="8.7265625" style="30"/>
-    <col min="7" max="8" width="8.7265625" style="21"/>
+    <col min="5" max="8" width="8.7265625" style="21"/>
     <col min="9" max="9" width="33.7265625" style="21" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1718,17 +1728,17 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>40</v>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1747,7 +1757,7 @@
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1755,57 +1765,57 @@
       <c r="I4" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="22">
         <v>7</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22">
+        <v>5</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28">
-        <v>7</v>
-      </c>
-      <c r="D7" s="28">
-        <v>5</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1859,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1920,13 +1930,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1938,16 +1948,16 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1956,10 +1966,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="H8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1971,10 +1981,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1986,10 +1996,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2001,10 +2011,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2016,10 +2026,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2031,10 +2041,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2046,10 +2056,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2061,10 +2071,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2076,10 +2086,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2091,10 +2101,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2106,10 +2116,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2121,10 +2131,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2136,10 +2146,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2151,10 +2161,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2166,10 +2176,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2178,19 +2188,19 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2202,10 +2212,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2223,10 +2233,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2238,10 +2248,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2253,10 +2263,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2268,10 +2278,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2287,82 +2297,82 @@
         <v>23</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H30" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H32" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H33" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H36" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H38" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2373,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC196E3-39F8-4C84-8044-EC20A85177F6}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2385,17 +2395,17 @@
     <col min="2" max="2" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.90625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="21"/>
-    <col min="9" max="9" width="75.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2412,19 +2422,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2475,16 +2485,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2501,19 +2511,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2528,122 +2538,127 @@
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H17" s="21" t="s">
+      <c r="I17" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I18" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="21" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H21" s="21" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H22" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H22" s="21" t="s">
+      <c r="I22" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H23" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="I23" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2696,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2701,16 +2716,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2810,70 +2825,70 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2882,10 +2897,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="H7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2912,13 +2927,13 @@
       <c r="D8" s="2"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2978,13 +2993,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -3044,13 +3059,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3110,13 +3125,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3176,13 +3191,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3242,13 +3257,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3308,13 +3323,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3374,13 +3389,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3440,13 +3455,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3506,13 +3521,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3572,13 +3587,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3638,13 +3653,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3704,10 +3719,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3736,10 +3751,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3792,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -3812,16 +3827,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3885,34 +3900,34 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -3921,10 +3936,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="H7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3939,13 +3954,13 @@
       <c r="D8" s="2"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -3969,13 +3984,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -3999,13 +4014,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -4029,13 +4044,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -4059,13 +4074,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -4089,13 +4104,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -4119,13 +4134,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -4149,13 +4164,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4179,13 +4194,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -4209,13 +4224,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4239,13 +4254,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4269,13 +4284,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4299,10 +4314,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -4319,10 +4334,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4357,19 +4372,19 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4392,10 +4407,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4410,10 +4425,10 @@
       <c r="D25" s="2"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4430,10 +4445,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4497,7 +4512,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -4517,16 +4532,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -4554,7 +4569,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -4599,16 +4614,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -4636,7 +4651,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A9457-F3A8-4E8D-84A9-10D0BF936A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9931C2-E6FC-4C65-93D7-48FA55D01110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="LPF Board" sheetId="6" r:id="rId6"/>
     <sheet name="VHF Board" sheetId="7" r:id="rId7"/>
     <sheet name="100W Module" sheetId="5" r:id="rId8"/>
+    <sheet name="ATU Module" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="205">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -664,6 +665,12 @@
   </si>
   <si>
     <t>0x26</t>
+  </si>
+  <si>
+    <t>ATU</t>
+  </si>
+  <si>
+    <t>Band, Tune, Status, Control</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD3E8-C5A8-452B-8567-EDEC69EE61A0}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1699,8 +1706,46 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+    <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5680,4 +5725,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5AA939-9098-446F-B03F-1739312865A5}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9931C2-E6FC-4C65-93D7-48FA55D01110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF0107-0871-4500-8402-08378F816DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="208">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -199,9 +199,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>MCP23017 for Band Selection - 160M-6M + Bypass</t>
-  </si>
-  <si>
     <t>K9HZ</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>100W</t>
-  </si>
-  <si>
-    <t>Current, Temperature, Bias</t>
   </si>
   <si>
     <t>Pico</t>
@@ -661,9 +655,6 @@
     <t>BPF #2</t>
   </si>
   <si>
-    <t>0x24/ 0x26</t>
-  </si>
-  <si>
     <t>0x26</t>
   </si>
   <si>
@@ -671,6 +662,24 @@
   </si>
   <si>
     <t>Band, Tune, Status, Control</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>AD7991-1  Channel #2 - Current</t>
+  </si>
+  <si>
+    <t>ADT75 Temperature</t>
+  </si>
+  <si>
+    <t>MCP23017 for Band Selection - 160M-6M + Bypass - First Receiver</t>
+  </si>
+  <si>
+    <t>MCP23017 for Band Selection - 160M-6M + Bypass - Second Receiver</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD3E8-C5A8-452B-8567-EDEC69EE61A0}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1377,7 +1386,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1392,13 +1401,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -1509,7 +1518,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D17" s="9"/>
       <c r="G17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
@@ -1566,187 +1575,212 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="G22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="11">
+        <v>110</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="I27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="I31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <v>7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="2">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>182</v>
+      <c r="G33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1809,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1801,10 +1835,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1844,21 +1878,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>10</v>
@@ -1870,18 +1904,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1941,10 +1975,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1996,13 +2030,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2014,16 +2048,16 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2032,10 +2066,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="H8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2047,10 +2081,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2062,10 +2096,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2077,10 +2111,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2092,10 +2126,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2107,10 +2141,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2122,10 +2156,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2137,10 +2171,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2152,10 +2186,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2167,10 +2201,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2182,10 +2216,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2197,10 +2231,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2212,10 +2246,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2227,10 +2261,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2242,10 +2276,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2254,19 +2288,19 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2278,10 +2312,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2299,10 +2333,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2314,10 +2348,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2329,10 +2363,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2344,10 +2378,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2363,82 +2397,82 @@
         <v>23</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H30" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H31" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H32" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H33" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H34" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H35" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H36" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H37" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H38" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2488,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>39</v>
@@ -2497,10 +2531,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2551,16 +2585,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2577,19 +2611,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2604,127 +2638,127 @@
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H16" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H17" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H18" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H19" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H20" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H21" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H22" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H23" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2762,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2788,10 +2822,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2879,7 +2913,7 @@
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2923,67 +2957,67 @@
         <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2992,10 +3026,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="H8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3022,13 +3056,13 @@
       <c r="D9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -3088,13 +3122,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3154,13 +3188,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3220,13 +3254,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3286,13 +3320,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3352,13 +3386,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3418,13 +3452,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3484,13 +3518,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3550,13 +3584,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3616,13 +3650,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3682,13 +3716,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3748,13 +3782,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3814,10 +3848,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3846,10 +3880,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3871,7 +3905,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3888,70 +3922,70 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="Y25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3963,10 +3997,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3995,13 +4029,13 @@
       <c r="F27" s="1"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4061,13 +4095,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -4127,13 +4161,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4193,13 +4227,13 @@
       <c r="F30" s="2"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -4259,13 +4293,13 @@
       <c r="F31" s="2"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4325,13 +4359,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -4391,13 +4425,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4457,13 +4491,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -4523,13 +4557,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -4589,13 +4623,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -4655,13 +4689,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4721,13 +4755,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -4787,10 +4821,10 @@
       <c r="F39" s="2"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -4819,10 +4853,10 @@
       <c r="F40" s="2"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4875,7 +4909,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4901,10 +4935,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -4968,34 +5002,34 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -5004,10 +5038,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5022,13 +5056,13 @@
       <c r="D8" s="2"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -5052,13 +5086,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -5082,13 +5116,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -5112,13 +5146,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -5142,13 +5176,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -5172,13 +5206,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -5202,13 +5236,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -5232,13 +5266,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -5262,13 +5296,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -5292,13 +5326,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -5322,13 +5356,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -5352,13 +5386,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5382,10 +5416,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -5402,10 +5436,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5440,19 +5474,19 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -5475,10 +5509,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5493,10 +5527,10 @@
       <c r="D25" s="2"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5513,10 +5547,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5580,7 +5614,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5606,10 +5640,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5637,7 +5671,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +5696,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5688,10 +5722,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5719,7 +5753,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +5773,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF0107-0871-4500-8402-08378F816DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B8EA9-E4DB-448C-A5D1-14E7B52713E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="209">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>0x28 or 0x29</t>
-  </si>
-  <si>
-    <t>AD7991-1/-1 A/D for FOR and REF Power.</t>
   </si>
   <si>
     <t>Front Panel Board - I2C Addresses</t>
@@ -667,12 +664,6 @@
     <t>0x48</t>
   </si>
   <si>
-    <t>Bias</t>
-  </si>
-  <si>
-    <t>AD7991-1  Channel #2 - Current</t>
-  </si>
-  <si>
     <t>ADT75 Temperature</t>
   </si>
   <si>
@@ -680,6 +671,18 @@
   </si>
   <si>
     <t>MCP23017 for Band Selection - 160M-6M + Bypass - Second Receiver</t>
+  </si>
+  <si>
+    <t>0x28</t>
+  </si>
+  <si>
+    <t>AD7991-0 A/D for FOR and REF Power.</t>
+  </si>
+  <si>
+    <t>MCP3021A0T</t>
+  </si>
+  <si>
+    <t>0x4C</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD3E8-C5A8-452B-8567-EDEC69EE61A0}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1386,7 +1389,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1401,13 +1404,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -1518,7 +1521,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D17" s="9"/>
       <c r="G17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
@@ -1581,20 +1584,20 @@
         <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="D22" s="9"/>
       <c r="G22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="11">
         <v>110</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1638,13 +1641,13 @@
         <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1677,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1707,80 +1710,77 @@
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="I31" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2">
-        <v>7</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>180</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1809,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1835,10 +1835,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1878,21 +1878,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>10</v>
@@ -1904,18 +1904,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1975,10 +1975,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2030,13 +2030,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2048,16 +2048,16 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2066,10 +2066,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="H8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2081,10 +2081,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2096,10 +2096,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2111,10 +2111,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2126,10 +2126,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2141,10 +2141,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2156,10 +2156,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2171,10 +2171,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2186,10 +2186,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2201,10 +2201,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2216,10 +2216,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2231,10 +2231,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2246,10 +2246,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2261,10 +2261,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2276,10 +2276,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2288,19 +2288,19 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2312,10 +2312,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2333,10 +2333,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2348,10 +2348,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2363,10 +2363,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2378,10 +2378,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2397,82 +2397,82 @@
         <v>23</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H30" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H33" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H34" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H35" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H36" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H38" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2522,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>39</v>
@@ -2531,10 +2531,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2585,16 +2585,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2611,19 +2611,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2638,127 +2638,127 @@
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H17" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H18" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H19" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H20" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H21" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H22" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H23" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2822,10 +2822,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2957,67 +2957,67 @@
         <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -3026,10 +3026,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="H8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3056,13 +3056,13 @@
       <c r="D9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -3122,13 +3122,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3188,13 +3188,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3254,13 +3254,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3320,13 +3320,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3386,13 +3386,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3452,13 +3452,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3518,13 +3518,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3584,13 +3584,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3650,13 +3650,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3716,13 +3716,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3782,13 +3782,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3848,10 +3848,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3880,10 +3880,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3922,70 +3922,70 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="Y25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3997,10 +3997,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4029,13 +4029,13 @@
       <c r="F27" s="1"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4095,13 +4095,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -4161,13 +4161,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4227,13 +4227,13 @@
       <c r="F30" s="2"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -4293,13 +4293,13 @@
       <c r="F31" s="2"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4359,13 +4359,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -4425,13 +4425,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4491,13 +4491,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -4557,13 +4557,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -4623,13 +4623,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -4689,13 +4689,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4755,13 +4755,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -4821,10 +4821,10 @@
       <c r="F39" s="2"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -4853,10 +4853,10 @@
       <c r="F40" s="2"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4909,7 +4909,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4935,10 +4935,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -5005,31 +5005,31 @@
         <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -5038,10 +5038,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="H7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5056,13 +5056,13 @@
       <c r="D8" s="2"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -5086,13 +5086,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -5116,13 +5116,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -5146,13 +5146,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -5176,13 +5176,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -5206,13 +5206,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -5236,13 +5236,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -5266,13 +5266,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -5296,13 +5296,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -5326,13 +5326,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -5356,13 +5356,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -5386,13 +5386,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5416,10 +5416,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -5436,10 +5436,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5477,16 +5477,16 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -5509,10 +5509,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5527,10 +5527,10 @@
       <c r="D25" s="2"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5547,10 +5547,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5614,7 +5614,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5640,10 +5640,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5696,7 +5696,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5722,10 +5722,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">

--- a/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B8EA9-E4DB-448C-A5D1-14E7B52713E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26104F-5DBA-45F7-935C-B97439E910CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ABF51C55-DCAE-41FA-BBC5-EE597F9FA5AC}"/>
   </bookViews>
@@ -676,13 +676,13 @@
     <t>0x28</t>
   </si>
   <si>
-    <t>AD7991-0 A/D for FOR and REF Power.</t>
-  </si>
-  <si>
-    <t>MCP3021A0T</t>
-  </si>
-  <si>
     <t>0x4C</t>
+  </si>
+  <si>
+    <t>MCP3021A0T 2xRD100HHF1 Current Draw</t>
+  </si>
+  <si>
+    <t>AD7991-0 A/D for FORWARD and REFLECTED Power.</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD3E8-C5A8-452B-8567-EDEC69EE61A0}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>23</v>
@@ -1647,7 +1647,7 @@
         <v>58</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -1724,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>207</v>
